--- a/asv_system/param.xlsx
+++ b/asv_system/param.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="10">
   <si>
     <t xml:space="preserve">class</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">dcpa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group</t>
   </si>
   <si>
     <t xml:space="preserve">CF</t>
@@ -147,13 +150,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F46" activeCellId="0" sqref="F46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G46" activeCellId="0" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -174,16 +177,19 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0</v>
@@ -194,16 +200,19 @@
       <c r="F2" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>0</v>
@@ -213,17 +222,20 @@
       </c>
       <c r="F3" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>0</v>
@@ -234,16 +246,19 @@
       <c r="F4" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>0</v>
@@ -254,16 +269,19 @@
       <c r="F5" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>0</v>
@@ -272,18 +290,21 @@
         <v>250</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>0</v>
@@ -292,18 +313,21 @@
         <v>250</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>0</v>
@@ -312,18 +336,21 @@
         <v>250</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>-5</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>0</v>
@@ -332,18 +359,21 @@
         <v>250</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>-10</v>
+        <v>-5</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>0</v>
@@ -352,7 +382,10 @@
         <v>250</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>-20</v>
+        <v>-10</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -363,21 +396,24 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>0</v>
+        <v>-20</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>5</v>
@@ -389,15 +425,18 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>5</v>
@@ -409,15 +448,18 @@
         <v>0</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>5</v>
@@ -429,15 +471,18 @@
         <v>0</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>5</v>
@@ -449,15 +494,18 @@
         <v>0</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>5</v>
@@ -472,12 +520,15 @@
         <v>250</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>5</v>
@@ -492,12 +543,15 @@
         <v>250</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>-5</v>
+        <v>5</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>5</v>
@@ -512,12 +566,15 @@
         <v>250</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>-10</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>5</v>
@@ -532,138 +589,159 @@
         <v>250</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>-20</v>
+        <v>-5</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>0</v>
+        <v>-10</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>250</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>0</v>
+        <v>-20</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="F23" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>1</v>
@@ -672,18 +750,21 @@
         <v>250</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>-5</v>
+        <v>0</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>1</v>
@@ -692,18 +773,21 @@
         <v>250</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>-10</v>
+        <v>5</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>1</v>
@@ -712,7 +796,10 @@
         <v>250</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>-20</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -723,16 +810,19 @@
         <v>5</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>0</v>
+        <v>-5</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -743,7 +833,7 @@
         <v>5</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>1</v>
@@ -752,7 +842,10 @@
         <v>250</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>0</v>
+        <v>-10</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -763,21 +856,24 @@
         <v>5</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>0</v>
+        <v>-20</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>5</v>
@@ -789,15 +885,18 @@
         <v>1</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>5</v>
@@ -812,12 +911,15 @@
         <v>250</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>5</v>
@@ -829,15 +931,18 @@
         <v>1</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>5</v>
@@ -849,15 +954,18 @@
         <v>1</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>-5</v>
+        <v>0</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>5</v>
@@ -869,15 +977,18 @@
         <v>1</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>-10</v>
+        <v>0</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>5</v>
@@ -892,12 +1003,15 @@
         <v>250</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>-20</v>
+        <v>0</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>5</v>
@@ -912,12 +1026,15 @@
         <v>250</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>5</v>
@@ -929,15 +1046,18 @@
         <v>1</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>5</v>
@@ -949,15 +1069,18 @@
         <v>1</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>0</v>
+        <v>-5</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>5</v>
@@ -969,10 +1092,13 @@
         <v>1</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>0</v>
+        <v>-10</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -986,18 +1112,21 @@
         <v>225</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="1" t="n">
         <v>250</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>50</v>
+        <v>-20</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>5</v>
@@ -1012,12 +1141,15 @@
         <v>250</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>5</v>
@@ -1032,12 +1164,15 @@
         <v>250</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>-50</v>
+        <v>100</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>5</v>
@@ -1052,7 +1187,33 @@
         <v>250</v>
       </c>
       <c r="F45" s="1" t="n">
+        <v>-50</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="F46" s="1" t="n">
         <v>-100</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
